--- a/Documents/data_dictionary.xlsx
+++ b/Documents/data_dictionary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\23rgillespie.dfe\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\lmetb-dife-fs01\StudentUserData$\23rgillespie.dfe\Documents\GitHub\ppdassignment2\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00CC5B45-B550-4C41-821E-86DB68A71428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4A2D62-C871-4961-BD33-37E4E5DD5496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7365" yWindow="1605" windowWidth="21600" windowHeight="11385" xr2:uid="{FE0CEFE0-8742-4924-93C8-4F2BB68C4375}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FE0CEFE0-8742-4924-93C8-4F2BB68C4375}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>Variable</t>
   </si>
@@ -56,9 +56,6 @@
     <t>convert_again</t>
   </si>
   <si>
-    <t>boolean</t>
-  </si>
-  <si>
     <t>checks if the user wants to convert again, or return to convert something else</t>
   </si>
   <si>
@@ -92,9 +89,6 @@
     <t>float</t>
   </si>
   <si>
-    <t>Returns a hard coded error message if the choice is &gt;6 or &gt;3 in the inner menus</t>
-  </si>
-  <si>
     <t>the value of miles to be converted to km</t>
   </si>
   <si>
@@ -105,6 +99,33 @@
   </si>
   <si>
     <t>the value of fahrenheit to be converted to celsius</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>st</t>
+  </si>
+  <si>
+    <t>acres</t>
+  </si>
+  <si>
+    <t>hect</t>
+  </si>
+  <si>
+    <t>litres</t>
+  </si>
+  <si>
+    <t>pints</t>
+  </si>
+  <si>
+    <t>Returns a hard coded error message if the choice is &gt;6 or &gt;3 in the inner menus, or if the input is a string</t>
+  </si>
+  <si>
+    <t>boolean/string</t>
+  </si>
+  <si>
+    <t>hardcoded to a lowercase "y," "n" is False</t>
   </si>
 </sst>
 </file>
@@ -476,19 +497,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B58DCF8-D9A1-453B-A7D4-561B2C89C060}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" customWidth="1"/>
     <col min="2" max="2" width="68.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="70" customWidth="1"/>
+    <col min="5" max="5" width="91.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -514,75 +535,155 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
       </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
       <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D16">
         <v>0</v>
       </c>
     </row>
@@ -592,6 +693,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000DF807DA241FFB4CB0C2ED390B3C6D2A" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1855bb107b3571ebfca1ae77110a41b1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="7cfe6346-458e-41a1-9b40-eaa846831815" xmlns:ns4="7230a536-e122-46c0-8447-4cc53ad0258f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afbbf020c75820ed6e0823eb27d408c0" ns3:_="" ns4:_="">
     <xsd:import namespace="7cfe6346-458e-41a1-9b40-eaa846831815"/>
@@ -806,15 +916,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -824,6 +925,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63F558A3-B27F-4F22-96A9-F30F49C26D88}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF8841AD-53E8-4E41-B7A5-2F2EE07F9726}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -842,14 +951,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63F558A3-B27F-4F22-96A9-F30F49C26D88}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BFE5C32-0B28-44EE-8D49-D12251D80898}">
   <ds:schemaRefs>

--- a/Documents/data_dictionary.xlsx
+++ b/Documents/data_dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\lmetb-dife-fs01\StudentUserData$\23rgillespie.dfe\Documents\GitHub\ppdassignment2\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4A2D62-C871-4961-BD33-37E4E5DD5496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF1EC37-3C21-4A8C-AAE8-6D87D191270B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FE0CEFE0-8742-4924-93C8-4F2BB68C4375}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>Variable</t>
   </si>
@@ -125,7 +125,10 @@
     <t>boolean/string</t>
   </si>
   <si>
-    <t>hardcoded to a lowercase "y," "n" is False</t>
+    <t>Hardcoded to a lowercase "y," "n" is False</t>
+  </si>
+  <si>
+    <t>This function is reused throughout the program, and is initialised every time a new conversion is made</t>
   </si>
 </sst>
 </file>
@@ -500,7 +503,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,11 +636,17 @@
       <c r="D9">
         <v>0</v>
       </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
       <c r="D10">
         <v>0</v>
       </c>
@@ -646,6 +655,9 @@
       <c r="A11" t="s">
         <v>22</v>
       </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
       <c r="D11">
         <v>0</v>
       </c>
@@ -654,6 +666,9 @@
       <c r="A12" t="s">
         <v>23</v>
       </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
       <c r="D12">
         <v>0</v>
       </c>
@@ -662,6 +677,9 @@
       <c r="A13" t="s">
         <v>24</v>
       </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
       <c r="D13">
         <v>0</v>
       </c>
@@ -670,6 +688,9 @@
       <c r="A14" t="s">
         <v>25</v>
       </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
       <c r="D14">
         <v>0</v>
       </c>
@@ -678,11 +699,17 @@
       <c r="A15" t="s">
         <v>26</v>
       </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
       <c r="D15">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
       <c r="D16">
         <v>0</v>
       </c>
